--- a/IPL/Kolkata Knight Riders/Dinesh Karthik †.xlsx
+++ b/IPL/Kolkata Knight Riders/Dinesh Karthik †.xlsx
@@ -445,10 +445,10 @@
         <v>Dinesh Karthik †</v>
       </c>
       <c r="C2" t="str">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="str">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" t="str">
         <v>1</v>
@@ -457,16 +457,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>200.00</v>
+        <v>122.22</v>
       </c>
       <c r="H2" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J2" t="str">
-        <v>March 30 2022</v>
+        <v>April 26 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Dinesh Karthik †</v>
       </c>
       <c r="C3" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>200.00</v>
+        <v>112.50</v>
       </c>
       <c r="H3" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J3" t="str">
-        <v>March 30 2022</v>
+        <v>April 06 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
